--- a/db/1.xlsx
+++ b/db/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -3505,14 +3505,13 @@
   </sheetPr>
   <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
